--- a/public/dikson_products_list_2024_12.xlsx
+++ b/public/dikson_products_list_2024_12.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>PHOTO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>URL DRIVE</t>
   </si>
@@ -34,6 +31,36 @@
     <t>https://muster-dikson.com/it/prodotto/urtinol</t>
   </si>
   <si>
+    <t>DIKSON_PROFESSIONAL__0045_Classic-Care-System---PR25---Treatment.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/structur-fort</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0006_Classic-Care-System--DiksoTreat---Neutral-Shampoo.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-neutro-24007424</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0079_Classic-Care-System---Herbelan-Pack.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0007_Classic-Care-System---SUTIL---Bi-phase.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/sutil</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0135_Classic-Care-System---DiksoTreat---Repairing-Shampoo.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-riparatore-24007414</t>
+  </si>
+  <si>
     <t>DIKSON_PROFESSIONAL__0088_Emulsiondor---10vol---980ml.png</t>
   </si>
   <si>
@@ -58,17 +85,232 @@
     <t>https://muster-dikson.com/it/prodotto/dikso-blonde-shampoo-antigiallo-tonalizzante-24006131</t>
   </si>
   <si>
+    <t>DIKSON_PROFESSIONAL__0076_Illaminaction---Final-Touch-Spray.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0077_Illaminaction---Laminating-Concentrate-1000ml.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0074_Illaminaction---Primer.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0106_Classic-Care-System---CRISTALLI-FLUIDI.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0000_Classic-Care-System---BLU-GEL---Spray-Gel.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/blu-gel-spray-%2012100512</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0009_Classic.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikso-sten</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0014_Classic-Care-System---SOFFICE---Hair-Spray.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/soffice-forte</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0063_Classic-Care-System---Luxury-Caviar---Shampoo.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-conditioner-24006011</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0064_Classic-Care-System---Luxury-Caviar---Mask.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-maschera-rivitalizzante-24006032</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0071_Illaminaction---Lamellar-Sealer.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-lamellar-sealer</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0072_Illaminaction---Shampoo-1000ml.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-laminating-concentrate</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0073_Illaminaction---Shampoo-300ml.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-alkalising-primer-preparer</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0078_Illaminaction---NoYellow---HomeKit.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/sites/illaminaction/no-yellow/salone</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0010_Diksoprime---SuperArgan---Nourishing-Oil.png</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0049_Classic-Technical-System---PLATIDIK.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/platidik</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0050_Classic-Care-System---OIL-GEL.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/oil-gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DIKSON_PROFESSIONAL__0045_Classic-Care-System---PR25---Treatment.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/pr-25</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0048_Classic-Technical-System---PLATIDIK-ADVANCED.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/platidik-advanced</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0047_Classic-Care-System---POLYPLANT-COMPLEX---Treatment.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/polipant-complex</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0046_Classic-Care-System---POLY-OIL.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/poly-oil</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0034_Classic-Care-System---RISTRUTTURANTE---Treatment.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/ristrutturante-dikson</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0092_Classic-Technical-System---DiKSOPLEX---Shield-1.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-n1-24005202</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0100_Classic-Technical-System---DiKSOLISSAGE---MiniKit.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-mini-kit</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0102_Classic-Technical-System---DiKSOLISSAGE---3-Mask.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n3</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0103_Classic-Technical-System---DiKSOLISSAGE---2-Cream.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n2</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0101_Classic-Technical-System---DiKSOLISSAGE---1-Shampoo.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n1</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0099_Classic-Technical-System---DiKSOPERM---Neutral.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-neutral</t>
+  </si>
+  <si>
     <t>700/750ml</t>
   </si>
   <si>
+    <t>DIKSON_PROFESSIONAL__0091_Classic-Technical-System---DiKSOPLEX---MicroKit.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-micro-kit</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0094_DIKSONCOLOR.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-color-new</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0093_DIKSONCOLOR.png</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0087_Emulsiondor---20vol---980ml.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-125ml</t>
+  </si>
+  <si>
     <t>125/980ml</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0090_Classic-Care-System---DSM---Treatment.png</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dsm</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0084_Diksoprime---SuperEnergy---Amp.png</t>
+  </si>
+  <si>
+    <t>https://www.krason.ru/dikson/163/p79571</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0120_Diksoprime---SuperBalance---Shampoo-1000ml.png</t>
+  </si>
+  <si>
+    <t>https://newrevolutionshop.com/en/products/dikson-shampoo-energizzante-super-energy-diksoprime-300-ml?pr_prod_strat=e5_desc&amp;pr_rec_id=c1a6029cf&amp;pr_rec_pid=8688771858755&amp;pr_ref_pid=8821647540547&amp;pr_seq=uniform</t>
+  </si>
+  <si>
+    <t>DIKSON_PROFESSIONAL__0097_Classic-Technical-System---DiKSO---Color-Stripping-Shampoo.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://muster-dikson.com/it/prodotto/dikso-scaricacolore</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>e</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -90,16 +332,27 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +377,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -131,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -162,12 +421,16 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -176,13 +439,13 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -191,9 +454,19 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -214,11 +487,39 @@
     <xdr:ext cx="504825" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -445,14 +746,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -463,266 +762,421 @@
     <row r="3" ht="53.25" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" ht="60.0" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -731,8 +1185,12 @@
     </row>
     <row r="51">
       <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -5484,8 +5942,46 @@
     <hyperlink r:id="rId3" ref="C5"/>
     <hyperlink r:id="rId4" ref="C6"/>
     <hyperlink r:id="rId5" ref="C7"/>
-    <hyperlink r:id="rId6" ref="C8"/>
+    <hyperlink r:id="rId6" ref="C9"/>
+    <hyperlink r:id="rId7" ref="C10"/>
+    <hyperlink r:id="rId8" ref="C11"/>
+    <hyperlink r:id="rId9" ref="C12"/>
+    <hyperlink r:id="rId10" ref="C13"/>
+    <hyperlink r:id="rId11" ref="C14"/>
+    <hyperlink r:id="rId12" ref="C15"/>
+    <hyperlink r:id="rId13" ref="C16"/>
+    <hyperlink r:id="rId14" ref="C17"/>
+    <hyperlink r:id="rId15" ref="C18"/>
+    <hyperlink r:id="rId16" ref="C19"/>
+    <hyperlink r:id="rId17" ref="C20"/>
+    <hyperlink r:id="rId18" ref="C21"/>
+    <hyperlink r:id="rId19" ref="C22"/>
+    <hyperlink r:id="rId20" ref="C23"/>
+    <hyperlink r:id="rId21" ref="C24"/>
+    <hyperlink r:id="rId22" ref="C25"/>
+    <hyperlink r:id="rId23" ref="C26"/>
+    <hyperlink r:id="rId24" ref="C27"/>
+    <hyperlink r:id="rId25" ref="C29"/>
+    <hyperlink r:id="rId26" ref="C30"/>
+    <hyperlink r:id="rId27" ref="C31"/>
+    <hyperlink r:id="rId28" ref="C32"/>
+    <hyperlink r:id="rId29" ref="C33"/>
+    <hyperlink r:id="rId30" ref="C34"/>
+    <hyperlink r:id="rId31" ref="C35"/>
+    <hyperlink r:id="rId32" ref="C36"/>
+    <hyperlink r:id="rId33" ref="C37"/>
+    <hyperlink r:id="rId34" ref="C38"/>
+    <hyperlink r:id="rId35" ref="C39"/>
+    <hyperlink r:id="rId36" ref="C40"/>
+    <hyperlink r:id="rId37" ref="C41"/>
+    <hyperlink r:id="rId38" ref="C42"/>
+    <hyperlink r:id="rId39" ref="C43"/>
+    <hyperlink r:id="rId40" ref="C45"/>
+    <hyperlink r:id="rId41" ref="C46"/>
+    <hyperlink r:id="rId42" ref="C47"/>
+    <hyperlink r:id="rId43" ref="C48"/>
+    <hyperlink r:id="rId44" ref="C51"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>